--- a/documentation/Construccion/Resultados Evaluación/Problemas/PR 3.xlsx
+++ b/documentation/Construccion/Resultados Evaluación/Problemas/PR 3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isma2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\TraductorBraille\documentation\Construccion\Resultados Evaluación\Problemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D20B1A7-4670-41D9-AC65-A2BE1DF442AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5457BC-C5C3-4D7A-8A39-F3403798D144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>Código</t>
   </si>
   <si>
-    <t>La traducción automática braille-español no funciona correctamente hasta que el usuario haga clic en un elemento del teclado virtual en pantalla.</t>
+    <t>El traductor pierde todo el texto traducido, cuando se realiza una cancelación de cualquiera de las impresiones.</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
